--- a/build/web/csv/testExcel3.xlsx
+++ b/build/web/csv/testExcel3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7746330-613E-4688-B6BD-00DC1DDFE817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3C4A4A-35E3-4491-B82B-0C88038192D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6240" yWindow="380" windowWidth="19510" windowHeight="11430" xr2:uid="{DBD69545-25AB-4B03-9904-63D974791C3B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Title</t>
   </si>
@@ -81,9 +81,6 @@
     <t>a.True|space|b.False|space|c.Yes|space|d.Why</t>
   </si>
   <si>
-    <t>0_50_50_0</t>
-  </si>
-  <si>
     <t>This is fourth one</t>
   </si>
   <si>
@@ -103,6 +100,12 @@
   </si>
   <si>
     <t>this</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>0_50.00_50_0</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <dimension ref="A2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,7 +501,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -513,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -526,14 +529,14 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>4</v>
+      <c r="D4" t="s">
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -553,7 +556,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -561,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -570,18 +573,18 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -590,10 +593,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
